--- a/CompareResults.xlsx
+++ b/CompareResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/158a8004177174ca/Documents/Cursos/BI Master (PUC-Rio)/PROJ/Projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{5A222313-84EA-4690-A0CA-2CB328612032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C6C3C1-2763-4B42-96FE-5A75E64EE6D3}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{5A222313-84EA-4690-A0CA-2CB328612032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F64E3D-2008-479F-867D-6A769450F61E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11825A43-1D88-4180-B4F9-B4C61C054CBA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11825A43-1D88-4180-B4F9-B4C61C054CBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>0.2</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>OBSERVAÇÕES</t>
-  </si>
-  <si>
-    <t>A resposta está correta em todos os casos, mas com temperatura 0.4, foi um pouco além do perguntado.</t>
   </si>
   <si>
     <t>1) Can you tell me the difference between Autopilot and Autopilot device preparation?</t>
@@ -641,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D06518-52C7-4DD5-832A-A0B72FC79940}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -681,10 +678,10 @@
     </row>
     <row r="3" spans="1:5" ht="132" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -693,32 +690,32 @@
         <v>5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="264" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
@@ -732,7 +729,7 @@
     </row>
     <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -749,10 +746,10 @@
     </row>
     <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -761,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
